--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -85,12 +85,186 @@
         </r>
       </text>
     </comment>
+    <comment ref="A26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>忽略大小写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以给定的地址家族、套接字类型和协议类型（可选）创建一个套接字对象</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>套接字类型（</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TCP=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>流，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UDP=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数据报</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>列表，元组，字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,13 +362,344 @@
   <si>
     <t>requests.get()</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2019-4-17  re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">match(pattern </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> flags=0) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">search(pattern </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> flags=0)</t>
+    </r>
+  </si>
+  <si>
+    <t>findall()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subn()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">re.I </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> split()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(?iLmsux) </t>
+  </si>
+  <si>
+    <t>re.X/VERBOSE</t>
+  </si>
+  <si>
+    <t>re.S/DOTALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re.M/MULTILINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8.9zsol.cn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> socket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+  </si>
+  <si>
+    <t>s.bind()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.listen()  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.accept() </t>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AF_UNIX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AF_INET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AF_INET6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AF_TIPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AF_NETLINK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SO_STREAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SO_DGRAM </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socketpair()</t>
+  </si>
+  <si>
+    <t>connect()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> socketserver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Twisted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>SocketServer</t>
+  </si>
+  <si>
+    <t>asyncore/asynchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socket </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +748,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,13 +775,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,25 +1154,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="40.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4">
+      <c r="A1" s="6">
         <v>43557</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
@@ -736,10 +1251,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>43563</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
@@ -760,6 +1275,164 @@
     <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>列表，元组，字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,54 @@
   </si>
   <si>
     <t xml:space="preserve">socket </t>
+  </si>
+  <si>
+    <r>
+      <t>ftplib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -775,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -792,6 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1154,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1433,6 +1482,31 @@
     <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="8">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -259,12 +259,400 @@
         </r>
       </text>
     </comment>
+    <comment ref="A57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>将线程声明为守护线程。
+必须在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>start()</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>方法调用之前设置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阻塞主线程
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>join(timeout)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>此方法有个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>timeout</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参数，是线程超时时间设置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>分离扩展名</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>返回是元组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给出当前平台的终止符号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+windowx : nt
+linux/unix : posix</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A79" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获取文件权限与时间戳</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+newdir </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必须不存在</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只能删除空目录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A86" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">前者效率更高
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>try:
+    import cPickle as pickle
+except ImportError:
+    import pickle</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>列表，元组，字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -740,6 +1128,256 @@
   </si>
   <si>
     <t>threading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.getcwd()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.listdir()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.remove()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.removedirs()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.isdir()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.isfile()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.isabs()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.exists()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.split()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.splitext()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.dername()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.basename()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.getenv()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.putenv()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.linesep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.rename(old,new)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.mkdir()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.stat()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.chmod()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutil.copytree(''olddir'',''newdir'')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutil.copyfile(''oldfile'',''dir_or_file'')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutil.move("oldpos","newpos")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.redir()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutil.rmtree("dir")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化，反序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cPickle  or  pickle  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dumps or dump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loads  or load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2019-4-28 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多进程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.getpid()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.fork()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.getppid()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>multiprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gevent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDaemon()</t>
+  </si>
+  <si>
+    <t>join()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,13 +1472,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1203,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1218,10 +1856,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6">
+      <c r="A1" s="7">
         <v>43557</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
@@ -1300,10 +1938,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>43563</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
@@ -1485,7 +2123,7 @@
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <v>43580</v>
       </c>
     </row>
@@ -1507,6 +2145,216 @@
     <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/python/python.xlsx
+++ b/python/python.xlsx
@@ -647,12 +647,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="A100" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+urllib.request   python3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代替</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> urllib2</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>列表，元组，字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1260,9 +1304,6 @@
   </si>
   <si>
     <r>
-      <t>os</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1270,7 +1311,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>模块</t>
+      <t>多线程</t>
     </r>
     <r>
       <rPr>
@@ -1280,11 +1321,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2019-4-28 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1293,7 +1331,103 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>多线程</t>
+      <t>多进程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.getpid()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.fork()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.getppid()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>multiprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gevent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDaemon()</t>
+  </si>
+  <si>
+    <t>join()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>urllib2     urllib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运维常用的</t>
     </r>
     <r>
       <rPr>
@@ -1303,7 +1437,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>python</t>
     </r>
     <r>
       <rPr>
@@ -1313,72 +1447,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>多进程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os.getpid()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os.fork()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os.getppid()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>multiprocessing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acquire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>release</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gevent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setDaemon()</t>
-  </si>
-  <si>
-    <t>join()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from sys import argv</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -1478,6 +1552,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2149,17 +2226,17 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -2309,27 +2386,27 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -2339,23 +2416,54 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="6">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="6">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
